--- a/data/trans_camb/P42_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P42_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-8,96</t>
+          <t>-4,93</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-17,29</t>
+          <t>-8,72</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-17,71</t>
+          <t>-9,16</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-12,66</t>
+          <t>-11,05</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-19,84</t>
+          <t>-4,13</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-18,97</t>
+          <t>-7,04</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-10,61</t>
+          <t>-6,67</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-18,4</t>
+          <t>-9,31</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-18,21</t>
+          <t>-4,51</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-7,84</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-7,86</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-10,14</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-17,56; 1,26</t>
+          <t>-8,93; -0,49</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-23,49; -11,53</t>
+          <t>-12,05; -5,88</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-24,03; -11,73</t>
+          <t>-12,72; -6,15</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-19,42; -7,0</t>
+          <t>-14,51; -8,52</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-25,91; -14,33</t>
+          <t>-7,18; -1,35</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-24,93; -13,71</t>
+          <t>-9,52; -4,6</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-15,35; -4,62</t>
+          <t>-9,31; -4,42</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-22,95; -14,71</t>
+          <t>-11,65; -7,22</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-22,59; -14,27</t>
+          <t>-6,96; -1,94</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-10,01; -5,98</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-10,06; -6,0</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-12,07; -8,37</t>
         </is>
       </c>
     </row>
@@ -738,47 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-41,27%</t>
+          <t>-44,02%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-79,6%</t>
+          <t>-77,86%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-81,56%</t>
+          <t>-81,81%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-50,6%</t>
+          <t>-98,62%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-79,28%</t>
+          <t>-43,81%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-75,81%</t>
+          <t>-74,72%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-45,78%</t>
+          <t>-70,82%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-79,34%</t>
+          <t>-98,8%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-78,55%</t>
+          <t>-43,93%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-76,36%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-76,52%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-98,71%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-67,83; 14,26</t>
+          <t>-66,77; -1,38</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-88,36; -63,17</t>
+          <t>-87,6; -61,91</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-90,48; -61,42</t>
+          <t>-90,68; -65,15</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-66,82; -30,59</t>
+          <t>-100,0; -92,36</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-86,95; -66,27</t>
+          <t>-64,79; -15,17</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-84,91; -62,56</t>
+          <t>-84,32; -57,42</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-60,02; -20,8</t>
+          <t>-81,79; -54,21</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-85,97; -70,58</t>
+          <t>-100,0; -92,14</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-85,1; -67,97</t>
+          <t>-59,76; -19,17</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-83,74; -65,54</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-84,11; -66,76</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; -95,74</t>
         </is>
       </c>
     </row>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-10,08</t>
+          <t>-5,27</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-14,1</t>
+          <t>-7,46</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-14,2</t>
+          <t>-7,51</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-10,65</t>
+          <t>-8,34</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-15,62</t>
+          <t>-3,73</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-15,52</t>
+          <t>-5,38</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-10,31</t>
+          <t>-5,32</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-14,7</t>
+          <t>-6,18</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-14,71</t>
+          <t>-4,49</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-6,41</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-6,4</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-7,25</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-16,28; -5,31</t>
+          <t>-9,04; -2,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-20,4; -9,98</t>
+          <t>-11,11; -4,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-20,14; -9,94</t>
+          <t>-11,34; -5,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-16,84; -4,6</t>
+          <t>-12,47; -6,09</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-21,38; -10,91</t>
+          <t>-6,2; -1,41</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-20,68; -10,63</t>
+          <t>-7,69; -3,43</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-14,69; -6,41</t>
+          <t>-7,86; -3,61</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-18,41; -11,17</t>
+          <t>-8,3; -4,39</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-18,95; -11,59</t>
+          <t>-6,54; -2,7</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-8,66; -4,87</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-8,46; -4,8</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-9,23; -5,76</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-64,6%</t>
+          <t>-63,19%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-90,39%</t>
+          <t>-89,42%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-91,01%</t>
+          <t>-90,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-59,03%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-86,57%</t>
+          <t>-58,36%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-86,01%</t>
+          <t>-84,16%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-62,16%</t>
+          <t>-83,15%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-88,63%</t>
+          <t>-96,64%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-88,69%</t>
+          <t>-61,07%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-87,12%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-87,01%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-98,54%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1136,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-80,17; -38,54</t>
+          <t>-81,18; -36,15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-97,07; -76,09</t>
+          <t>-96,8; -75,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-97,09; -77,44</t>
+          <t>-96,82; -75,06</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-78,57; -27,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-95,08; -71,17</t>
+          <t>-79,26; -22,21</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-93,84; -70,88</t>
+          <t>-93,89; -63,89</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-74,65; -43,75</t>
+          <t>-92,87; -62,48</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-94,19; -80,27</t>
+          <t>-100,0; -76,63</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-94,68; -80,18</t>
+          <t>-73,56; -39,47</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-94,1; -77,54</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-93,02; -76,43</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; -92,05</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-3,37</t>
+          <t>-1,6</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-4,8</t>
+          <t>-1,99</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>-2,56</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-2,56</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-3,79</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-4,45</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-5,33</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>-5,88</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-10,57</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-13,42</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-16,18</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-6,54</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-8,63</t>
-        </is>
-      </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-10,34</t>
+          <t>-2,68</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-3,21</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-3,93</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-4,2</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-11,08; 4,05</t>
+          <t>-4,66; 1,26</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-13,73; -0,21</t>
+          <t>-5,09; -0,02</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-14,32; -1,49</t>
+          <t>-6,09; -0,63</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-22,95; 2,48</t>
+          <t>-5,91; -0,61</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-25,58; -2,2</t>
+          <t>-8,39; 0,04</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-26,69; -8,23</t>
+          <t>-8,79; -0,72</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-13,63; 0,74</t>
+          <t>-9,65; -2,11</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-15,4; -3,57</t>
+          <t>-10,51; -3,02</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-16,12; -5,95</t>
+          <t>-5,56; -0,37</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-6,08; -0,99</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-6,48; -2,19</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-6,85; -2,62</t>
         </is>
       </c>
     </row>
@@ -1170,12 +1344,12 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-57,33%</t>
+          <t>-62,6%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-81,6%</t>
+          <t>-77,87%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -1185,32 +1359,47 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-60,33%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-76,6%</t>
+          <t>-64,41%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-92,38%</t>
+          <t>-75,67%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-60,12%</t>
+          <t>-90,7%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-79,32%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-95,04%</t>
+          <t>-63,85%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-76,38%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-93,57%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -1238,32 +1427,47 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-90,88; 58,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 16,96</t>
+          <t>-93,78; 39,13</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -47,8</t>
+          <t>-100,0; 33,63</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-91,94; 28,72</t>
+          <t>-100,0; 0,38</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-95,52; -19,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -61,29</t>
+          <t>-92,88; 0,92</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-94,41; -23,51</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; -31,64</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-8,84</t>
+          <t>-4,65</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-14,67</t>
+          <t>-7,38</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-15,06</t>
+          <t>-7,68</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-11,51</t>
+          <t>-8,91</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-17,51</t>
+          <t>-3,92</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-17,33</t>
+          <t>-6,08</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-9,96</t>
+          <t>-5,97</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-15,85</t>
+          <t>-7,69</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-15,99</t>
+          <t>-4,27</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-6,71</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-6,81</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-8,29</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-13,11; -3,5</t>
+          <t>-7,17; -2,38</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-18,4; -11,45</t>
+          <t>-9,44; -5,39</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-18,9; -11,64</t>
+          <t>-9,81; -5,85</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-15,68; -6,66</t>
+          <t>-10,98; -7,22</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-21,35; -13,92</t>
+          <t>-5,69; -2,15</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-21,24; -13,47</t>
+          <t>-7,63; -4,6</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-13,25; -6,87</t>
+          <t>-7,65; -4,48</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-18,51; -13,46</t>
+          <t>-9,35; -6,39</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-18,68; -13,51</t>
+          <t>-5,72; -2,73</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-8,12; -5,48</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-8,24; -5,66</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-9,67; -7,22</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-50,51%</t>
+          <t>-51,73%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-83,82%</t>
+          <t>-82,11%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-86,05%</t>
+          <t>-85,46%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-53,39%</t>
+          <t>-99,18%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-81,19%</t>
+          <t>-50,02%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-80,35%</t>
+          <t>-77,61%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-51,8%</t>
+          <t>-76,26%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-82,45%</t>
+          <t>-98,22%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-83,15%</t>
+          <t>-50,91%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>-79,96%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-81,07%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>-98,73%</t>
         </is>
       </c>
     </row>
@@ -1439,59 +1688,81 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-67,73; -20,32</t>
+          <t>-68,3; -26,89</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-89,9; -74,65</t>
+          <t>-88,94; -68,25</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-91,87; -75,53</t>
+          <t>-91,6; -74,67</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-66,45; -34,78</t>
+          <t>-100,0; -95,77</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-87,61; -72,38</t>
+          <t>-65,12; -30,23</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-86,62; -71,43</t>
+          <t>-85,17; -67,17</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-63,17; -35,54</t>
+          <t>-83,92; -63,97</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-87,22; -76,56</t>
+          <t>-100,0; -93,82</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-87,72; -76,95</t>
+          <t>-61,84; -35,75</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-85,58; -72,79</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-87,12; -74,82</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-99,67; -95,93</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
